--- a/biology/Zoologie/Centropyge_tibicen/Centropyge_tibicen.xlsx
+++ b/biology/Zoologie/Centropyge_tibicen/Centropyge_tibicen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-ange trou de serrure
 Centropyge tibicen, communément nommé Poisson-ange trou de serrure, est une espèce de poisson marin de la famille des Pomacanthidae.
-Le Poisson-ange trou de serrure est présent dans les eaux tropicales de l'Indo-Pacifique[2].
+Le Poisson-ange trou de serrure est présent dans les eaux tropicales de l'Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède une tâche blanche sur sa couleur noir, ses nageoires anales et pelviennes sont jaunes et sa taille maximale est de 19 cm.
 </t>
@@ -544,7 +558,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En élevage le couple se forme très facilement même en espace réduit et il picore les pierres des aquariums. Cette espèce est omnivore.
 </t>
